--- a/data/6 Seed Traits Station/Left station/Inbred Seeds/A-2231/6_Seed_Traits_04.21.23_LM.xlsx
+++ b/data/6 Seed Traits Station/Left station/Inbred Seeds/A-2231/6_Seed_Traits_04.21.23_LM.xlsx
@@ -734,7 +734,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
+      <selection pane="bottomLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
